--- a/data/trans_dic/P16B01-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B01-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B01-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B01-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,92%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,42%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,35%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,95%</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>36,84; 82,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>32,94; 69,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>33,46; 81,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>54,85; 88,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>43,48; 75,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>47,37; 73,3</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,32%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,97%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>57,32; 90,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>58,48; 82,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>49,7; 83,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>57,25; 89,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>49,39; 77,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>58,06; 88,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>65,15; 87,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>59,45; 76,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>60,77; 82,84</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,14%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,91%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,98%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,56%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,87%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>69,52; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>50,52; 83,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>60,07; 95,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>15,12; 87,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>61,55; 89,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>35,76; 76,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>60,44; 95,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>59,94; 82,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>54,44; 82,74</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,11%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>43,75; 85,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>54,34; 79,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>45,89; 80,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>46,85; 86,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>65,37; 85,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>62,13; 93,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>53,91; 82,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>64,23; 79,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>60,46; 83,91</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,88%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,62%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,17%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,14%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,63%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,09%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,99%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,89%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,24%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>38,11; 86,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>54,68; 89,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>43,03; 93,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>35,27; 86,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>44,14; 86,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>42,65; 87,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>41,86; 77,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>55,7; 83,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>51,2; 84,31</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,78%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,15%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,31%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,08%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>45,5; 88,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>54,74; 84,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>21,64; 70,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>45,93; 92,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>63,43; 93,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>40,63; 80,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>55,54; 85,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>63,6; 85,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>39,46; 70,99</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,3%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,7%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,01%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,46%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,89%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,59%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,6%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,06%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,67%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>65,22; 89,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>48,42; 76,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>33,39; 61,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>70,52; 95,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>52,14; 80,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>45,84; 72,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>74,38; 90,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>54,35; 74,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>42,59; 63,0</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,25%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,27%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,61%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,37%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,87%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,58%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,9%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,21%</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>62,42; 85,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>56,28; 89,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>52,3; 77,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>62,81; 83,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>54,52; 79,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>51,07; 73,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,5</t>
+          <t>66,38; 81,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>60,64; 80,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>55,14; 72,73</t>
         </is>
       </c>
     </row>
@@ -1512,47 +1512,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,17%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,42%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,19%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,1%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,08%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,42%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,16%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,69%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,49%</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>69,05; 81,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>63,79; 75,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>53,79; 66,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>66,96; 78,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>66,36; 76,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>61,11; 72,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>69,95; 78,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>66,76; 74,33</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>59,27; 67,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B01-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B01-Provincia-trans_dic.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,44%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,48%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,98; 77,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,01; 84,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,46; 77,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>67,76%</t>
+          <t>77,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>76,38%</t>
+          <t>80,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>72,47%</t>
+          <t>79,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,34; 79,92</t>
+          <t>57,1; 93,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,37; 85,74</t>
+          <t>64,59; 90,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>64,23; 79,7</t>
+          <t>67,43; 88,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_dic/P16B01-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B01-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,84; 82,77</t>
+          <t>35,47; 82,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>44,98; 77,38</t>
+          <t>43,11; 76,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,94; 69,26</t>
+          <t>31,85; 69,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33,46; 81,54</t>
+          <t>33,49; 81,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>54,01; 84,99</t>
+          <t>53,73; 84,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>54,85; 88,57</t>
+          <t>55,42; 88,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,48; 75,8</t>
+          <t>41,49; 74,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>53,46; 77,37</t>
+          <t>53,25; 76,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>47,37; 73,3</t>
+          <t>47,13; 72,47</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>57,32; 90,81</t>
+          <t>59,6; 90,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>58,48; 82,57</t>
+          <t>58,09; 81,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>49,7; 83,04</t>
+          <t>48,86; 83,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>57,25; 89,2</t>
+          <t>59,22; 89,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,39; 77,49</t>
+          <t>51,02; 77,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,06; 88,46</t>
+          <t>57,74; 88,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>65,15; 87,65</t>
+          <t>63,56; 86,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>59,45; 76,98</t>
+          <t>58,54; 76,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>60,77; 82,84</t>
+          <t>59,8; 81,71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>69,52; 100,0</t>
+          <t>69,7; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,52; 83,23</t>
+          <t>49,15; 80,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>60,07; 95,24</t>
+          <t>58,96; 95,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,12; 87,77</t>
+          <t>28,23; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>61,55; 89,44</t>
+          <t>62,13; 90,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,76; 76,7</t>
+          <t>37,12; 79,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>60,44; 95,53</t>
+          <t>61,94; 95,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>59,94; 82,2</t>
+          <t>61,43; 82,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>54,44; 82,74</t>
+          <t>54,49; 82,12</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,75; 85,79</t>
+          <t>44,94; 86,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>57,1; 93,45</t>
+          <t>54,53; 91,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,89; 80,83</t>
+          <t>47,4; 81,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>46,85; 86,08</t>
+          <t>46,52; 86,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,59; 90,72</t>
+          <t>62,16; 92,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,13; 93,44</t>
+          <t>66,89; 93,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>53,91; 82,2</t>
+          <t>53,93; 81,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>67,43; 88,49</t>
+          <t>67,65; 88,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60,46; 83,91</t>
+          <t>60,43; 83,26</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>38,11; 86,95</t>
+          <t>38,24; 87,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>54,68; 89,98</t>
+          <t>50,26; 88,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,03; 93,35</t>
+          <t>45,83; 93,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35,27; 86,57</t>
+          <t>29,9; 80,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,14; 86,05</t>
+          <t>46,42; 86,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>42,65; 87,93</t>
+          <t>42,61; 85,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>41,86; 77,7</t>
+          <t>42,02; 77,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>55,7; 83,92</t>
+          <t>54,94; 83,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>51,2; 84,31</t>
+          <t>50,1; 82,42</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>45,5; 88,18</t>
+          <t>45,3; 88,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>54,74; 84,62</t>
+          <t>55,84; 85,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,64; 70,68</t>
+          <t>22,73; 71,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>45,93; 92,22</t>
+          <t>45,93; 93,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>63,43; 93,33</t>
+          <t>64,13; 93,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>40,63; 80,2</t>
+          <t>41,26; 79,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>55,54; 85,88</t>
+          <t>52,65; 84,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>63,6; 85,65</t>
+          <t>63,92; 85,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>39,46; 70,99</t>
+          <t>39,23; 68,9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>65,22; 89,95</t>
+          <t>69,27; 90,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>48,42; 76,6</t>
+          <t>48,94; 76,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>33,39; 61,23</t>
+          <t>31,22; 59,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>70,52; 95,3</t>
+          <t>72,27; 95,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>52,14; 80,74</t>
+          <t>51,19; 80,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>45,84; 72,92</t>
+          <t>45,71; 71,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>74,38; 90,55</t>
+          <t>73,87; 90,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>54,35; 74,26</t>
+          <t>54,91; 74,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>42,59; 63,0</t>
+          <t>43,19; 62,41</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>62,42; 85,32</t>
+          <t>65,42; 85,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>56,28; 89,06</t>
+          <t>54,44; 86,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>52,3; 77,82</t>
+          <t>51,49; 78,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>62,81; 83,18</t>
+          <t>61,37; 82,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>54,52; 79,96</t>
+          <t>54,9; 80,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>51,07; 73,66</t>
+          <t>50,68; 75,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>66,38; 81,26</t>
+          <t>66,62; 81,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>60,64; 80,81</t>
+          <t>60,52; 80,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>55,14; 72,73</t>
+          <t>54,96; 71,99</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>69,05; 81,13</t>
+          <t>69,52; 80,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>63,79; 75,1</t>
+          <t>63,36; 75,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>53,79; 66,55</t>
+          <t>53,66; 66,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>66,96; 78,9</t>
+          <t>66,73; 79,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>66,36; 76,65</t>
+          <t>66,29; 76,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>61,11; 72,41</t>
+          <t>60,52; 71,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>69,95; 78,06</t>
+          <t>70,04; 77,77</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>66,76; 74,33</t>
+          <t>66,69; 74,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>59,27; 67,94</t>
+          <t>58,82; 67,5</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas medicinas para el catarro fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12265</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21163</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16138</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11011</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>23057</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>17795</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>23276</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>44221</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>33934</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6915; 16043</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>14849; 26188</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10195; 22201</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6431; 15685</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17231; 27225</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13629; 21696</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16053; 28769</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>35417; 50990</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>26676; 41017</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24701</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>46026</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>23584</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>23901</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>29017</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>29130</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>48602</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>75044</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>52714</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>18877; 28710</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>37749; 53006</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>16890; 28856</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>18511; 28130</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>22609; 34405</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>22331; 34394</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>40002; 54716</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>63975; 83675</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>43804; 59849</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13133</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>23756</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15342</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3956</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>28162</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14590</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17089</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>51918</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>29933</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9867; 14156</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17389; 28634</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11180; 18067</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1894; 6708</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22474; 32642</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9095; 19472</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12923; 19953</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>43960; 59236</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>23685; 35690</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>14044</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>18022</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>21189</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>13981</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>30207</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>22123</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>28025</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>48229</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>43312</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>9337; 17958</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>12752; 21427</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>15400; 26481</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9207; 17110</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>23413; 34658</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>17899; 24956</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>21879; 33219</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>41304; 53949</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>35803; 49328</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9125</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>19119</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>10232</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>8717</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>14699</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>11538</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>17842</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>33818</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>21770</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5549; 12639</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>13053; 23035</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6409; 13048</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4407; 11896</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10091; 18821</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7438; 14975</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12290; 22609</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>26211; 40000</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>15753; 25914</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>11589</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>29443</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7905</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>11508</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>23683</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>14880</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>23097</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>53127</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>22785</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>7524; 14650</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>22791; 34810</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3952; 12393</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7257; 14700</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>18477; 26879</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>9894; 19108</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>17065; 27497</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>44505; 59737</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>16228; 28502</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>38982</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>36179</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>25012</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>33338</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>28294</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>31205</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>72320</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>64473</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>56217</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>33210; 43363</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>27794; 43538</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>16970; 32161</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>27866; 36740</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>21654; 33947</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>23938; 37568</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>63902; 78225</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>54417; 73968</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>46096; 66612</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>46583</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>29216</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>35306</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>51590</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>35476</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>51151</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>98173</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>64693</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>86458</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>40266; 52756</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>21422; 34108</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>27431; 41651</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>43014; 58025</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>28490; 41592</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>41238; 61384</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>87704; 107026</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>55217; 73609</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>74003; 96935</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>170424</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>222927</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>154709</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>158002</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>212595</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>192413</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>328425</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>435522</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>347122</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>157612; 183090</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>203461; 240909</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>137942; 170266</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>144232; 170951</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>195530; 226417</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>175313; 208015</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>310172; 344439</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>410887; 458392</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>321595; 369065</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>